--- a/biology/Histoire de la zoologie et de la botanique/Dioscoro_Rabor/Dioscoro_Rabor.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Dioscoro_Rabor/Dioscoro_Rabor.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dioscoro Siarot Rabor, né le 18 mai 1911 à Cebu et mort le 25 mars 1996 dans la province de Laguna, est un zoologiste philippin[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dioscoro Siarot Rabor, né le 18 mai 1911 à Cebu et mort le 25 mars 1996 dans la province de Laguna, est un zoologiste philippin.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Titulaire d'un doctorat de l'Université Yale en 1958, il s'est spécialisé en ornithologie et en mammalogie, décrivant au moins cinq espèces et 39 sous-espèces d'oiseaux. De 1935 à 1977, il dirige plus de 50 expéditions dans les forêts de 25 îles des Philippines[1].
-Durant sa carrière, il signe 87 livres scientifiques ou de vulgarisation[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Titulaire d'un doctorat de l'Université Yale en 1958, il s'est spécialisé en ornithologie et en mammalogie, décrivant au moins cinq espèces et 39 sous-espèces d'oiseaux. De 1935 à 1977, il dirige plus de 50 expéditions dans les forêts de 25 îles des Philippines.
+Durant sa carrière, il signe 87 livres scientifiques ou de vulgarisation.
 </t>
         </is>
       </c>
